--- a/SICXE/Res/loadmap.xlsx
+++ b/SICXE/Res/loadmap.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>004000</t>
+          <t>00402A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>00406A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>004054</t>
+          <t>00407E</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>004063</t>
+          <t>00408D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0040C3</t>
+          <t>0040ED</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0040D3</t>
+          <t>0040FD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0040E2</t>
+          <t>00410C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>004112</t>
+          <t>00413C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>004124</t>
+          <t>00414E</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
